--- a/public/Excel/16data siswa.xlsx
+++ b/public/Excel/16data siswa.xlsx
@@ -8283,8 +8283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC6A6D3-0F62-4ADB-8C4A-57374A7A1274}">
   <dimension ref="A1:F1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1301" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1309" sqref="I1309"/>
+    <sheetView tabSelected="1" topLeftCell="A1226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1235" sqref="E1235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
